--- a/vvp.xlsx
+++ b/vvp.xlsx
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -152,6 +152,11 @@
       <sz val="10.0"/>
       <color rgb="FF222222"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -249,13 +254,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,11 +343,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="492482880"/>
-        <c:axId val="908528255"/>
+        <c:axId val="924630337"/>
+        <c:axId val="909966797"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="492482880"/>
+        <c:axId val="924630337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,10 +399,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908528255"/>
+        <c:crossAx val="909966797"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="908528255"/>
+        <c:axId val="909966797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +477,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492482880"/>
+        <c:crossAx val="924630337"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -564,11 +567,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="114538766"/>
-        <c:axId val="322038464"/>
+        <c:axId val="351670291"/>
+        <c:axId val="1830986883"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114538766"/>
+        <c:axId val="351670291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,10 +623,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322038464"/>
+        <c:crossAx val="1830986883"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322038464"/>
+        <c:axId val="1830986883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +701,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114538766"/>
+        <c:crossAx val="351670291"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1022,7 +1025,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="11.0"/>
     <col customWidth="1" hidden="1" min="2" max="2" width="8.0"/>
-    <col customWidth="1" min="3" max="123" width="8.0"/>
+    <col customWidth="1" min="3" max="7" width="8.0"/>
+    <col customWidth="1" min="8" max="8" width="21.38"/>
+    <col customWidth="1" min="9" max="123" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1585,13 +1590,13 @@
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>115.0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>126.0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>141.0</v>
       </c>
     </row>
@@ -1599,23 +1604,23 @@
       <c r="A7" s="1"/>
       <c r="C7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="DA7" s="11"/>
+      <c r="DA7" s="10"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="DA8" s="11"/>
+      <c r="DA8" s="10"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="C9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="DA9" s="11"/>
+      <c r="DA9" s="10"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1624,16 +1629,16 @@
       <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>118.0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>115.0</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>126.0</v>
       </c>
-      <c r="DA10" s="11"/>
+      <c r="DA10" s="10"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
@@ -1644,44 +1649,44 @@
       <c r="E11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>112.0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>118.0</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>132.0</v>
       </c>
-      <c r="DA11" s="11"/>
+      <c r="DA11" s="10"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="DA12" s="11"/>
+      <c r="DA12" s="10"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="DA13" s="11"/>
+      <c r="DA13" s="10"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="DA14" s="11"/>
+      <c r="DA14" s="10"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="DA15" s="11"/>
+      <c r="DA15" s="10"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="DA16" s="11"/>
+      <c r="DA16" s="10"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="DA17" s="11"/>
+      <c r="DA17" s="10"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="DA18" s="11"/>
+      <c r="DA18" s="10"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
@@ -1727,6 +1732,10 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
+      <c r="H33" s="12">
+        <f>0.0152192683890461/0.00661350646987557</f>
+        <v>2.301240417</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
